--- a/房子装修价格.xlsx
+++ b/房子装修价格.xlsx
@@ -1,48 +1,528 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="20490" windowHeight="7260"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="房子装修价格" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>个数</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>总额</t>
+  </si>
+  <si>
+    <t>疑问</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>柜子</t>
+  </si>
+  <si>
+    <t>面积</t>
+  </si>
+  <si>
+    <t>软装</t>
+  </si>
+  <si>
+    <t>硬装</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>床垫</t>
+  </si>
+  <si>
+    <t>茶几</t>
+  </si>
+  <si>
+    <t>沙发</t>
+  </si>
+  <si>
+    <t>插座</t>
+  </si>
+  <si>
+    <t>洗衣机</t>
+  </si>
+  <si>
+    <t>吊灯</t>
+  </si>
+  <si>
+    <t>床边灯</t>
+  </si>
+  <si>
+    <t>孔灯</t>
+  </si>
+  <si>
+    <t>卧室大灯</t>
+  </si>
+  <si>
+    <t>餐厅灯</t>
+  </si>
+  <si>
+    <t>厕所大灯</t>
+  </si>
+  <si>
+    <t>灯带</t>
+  </si>
+  <si>
+    <t>这个不需要</t>
+  </si>
+  <si>
+    <t>窗帘</t>
+  </si>
+  <si>
+    <t>书桌</t>
+  </si>
+  <si>
+    <t>餐桌</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>燃气灶</t>
+  </si>
+  <si>
+    <t>算不算软装</t>
+  </si>
+  <si>
+    <t>洗菜池</t>
+  </si>
+  <si>
+    <t>梳妆台</t>
+  </si>
+  <si>
+    <t>马桶</t>
+  </si>
+  <si>
+    <t>蹲厕所</t>
+  </si>
+  <si>
+    <t>卧室空调</t>
+  </si>
+  <si>
+    <t>客厅中央空调</t>
+  </si>
+  <si>
+    <t>客厅吊顶</t>
+  </si>
+  <si>
+    <t>卧室吊顶</t>
+  </si>
+  <si>
+    <t>窗户</t>
+  </si>
+  <si>
+    <t>大门</t>
+  </si>
+  <si>
+    <t>电视墙</t>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -50,21 +530,388 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="single"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -72,6 +919,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K38" totalsRowShown="0">
+  <autoFilter ref="A1:K38"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="序号" dataDxfId="0"/>
+    <tableColumn id="2" name="物品" dataDxfId="1"/>
+    <tableColumn id="3" name="个数" dataDxfId="2"/>
+    <tableColumn id="4" name="用途" dataDxfId="3"/>
+    <tableColumn id="5" name="类别" dataDxfId="4"/>
+    <tableColumn id="6" name="单价" dataDxfId="5"/>
+    <tableColumn id="7" name="总额" dataDxfId="6"/>
+    <tableColumn id="8" name="疑问" dataDxfId="7"/>
+    <tableColumn id="9" name="列2" dataDxfId="8"/>
+    <tableColumn id="10" name="列3" dataDxfId="9"/>
+    <tableColumn id="11" name="列4" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,50 +1222,877 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>750</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C2*F2</f>
+        <v>9000</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>150000</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C3*F3</f>
+        <v>150000</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="1">
+        <f>C4*F4</f>
+        <v>9000</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G27" si="0">C5*F5</f>
+        <v>9000</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4300</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <f>C8*F8</f>
+        <v>900</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1">
+        <v>400</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1">
+        <v>777</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>777</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1900</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>7600</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1900</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1">
+        <v>400</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1">
+        <v>500</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1">
+        <v>300</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <f>C37*F37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <f>C38*F38</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="1">
+        <f>SUM(G2:G38)</f>
+        <v>245217</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/房子装修价格.xlsx
+++ b/房子装修价格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>序号</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>电视墙</t>
+  </si>
+  <si>
+    <t>插座开关</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>艾琳加不算</t>
   </si>
   <si>
     <t>总金额</t>
@@ -1231,11 +1240,11 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1284,7 +1293,9 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1321,9 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1334,7 +1347,9 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1358,7 +1373,9 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1382,7 +1399,9 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1425,9 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1430,7 +1451,9 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1445,7 +1468,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="1">
-        <f>C8*F8</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="H8" s="1"/>
@@ -1454,7 +1477,9 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1503,9 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,7 +1529,9 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1555,9 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1550,7 +1581,9 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1574,7 +1607,9 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,7 +1633,9 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1622,7 +1659,9 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,7 +1683,9 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1668,7 +1709,9 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1692,7 +1735,9 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1716,7 +1761,9 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1740,33 +1787,37 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="1">
         <v>4000</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G21:G30" si="1">C21*F21</f>
         <v>4000</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1781,7 +1832,7 @@
         <v>1000</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="H22" s="1"/>
@@ -1790,7 +1841,9 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1805,7 +1858,7 @@
         <v>400</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="H23" s="1"/>
@@ -1814,7 +1867,9 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1829,7 +1884,7 @@
         <v>500</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="H24" s="1"/>
@@ -1838,7 +1893,9 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1853,7 +1910,7 @@
         <v>300</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="H25" s="1"/>
@@ -1862,7 +1919,9 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
@@ -1877,7 +1936,7 @@
         <v>3000</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="H26" s="1"/>
@@ -1886,7 +1945,9 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1901,7 +1962,7 @@
         <v>10000</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="H27" s="1"/>
@@ -1910,54 +1971,87 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1">
+        <v>165</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>1650</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <v>20</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1">
+        <v>165</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1">
+        <v>800</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,7 +2062,9 @@
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1">
+        <v>3000</v>
+      </c>
       <c r="G31" s="1">
         <v>3000</v>
       </c>
@@ -1978,7 +2074,9 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1989,7 +2087,9 @@
       <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1">
+        <v>3000</v>
+      </c>
       <c r="G32" s="1">
         <v>3000</v>
       </c>
@@ -1999,33 +2099,61 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1000</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9999</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2038,7 +2166,9 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2051,23 +2181,24 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1">
-        <f>C37*F37</f>
-        <v>0</v>
-      </c>
+      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2080,11 +2211,11 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K38" s="1">
         <f>SUM(G2:G38)</f>
-        <v>245217</v>
+        <v>285166</v>
       </c>
     </row>
   </sheetData>

--- a/房子装修价格.xlsx
+++ b/房子装修价格.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7260"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="房子装修价格" sheetId="1" r:id="rId1"/>
+    <sheet name="房子装修价格2" sheetId="2" r:id="rId2"/>
+    <sheet name="其他1" sheetId="3" r:id="rId3"/>
+    <sheet name="其他12" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="97">
   <si>
     <t>序号</t>
   </si>
@@ -164,6 +168,147 @@
   </si>
   <si>
     <t>总金额</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>单价2</t>
+  </si>
+  <si>
+    <t>总价2</t>
+  </si>
+  <si>
+    <t>建议品牌</t>
+  </si>
+  <si>
+    <t>下水道隔音棉</t>
+  </si>
+  <si>
+    <t>五金</t>
+  </si>
+  <si>
+    <t>百隆,焊高</t>
+  </si>
+  <si>
+    <t>地漏</t>
+  </si>
+  <si>
+    <t>地漏一定要对口</t>
+  </si>
+  <si>
+    <t>玻璃胶</t>
+  </si>
+  <si>
+    <t>腻子</t>
+  </si>
+  <si>
+    <t>乳胶漆</t>
+  </si>
+  <si>
+    <t>2遍至少</t>
+  </si>
+  <si>
+    <t>选十环认证</t>
+  </si>
+  <si>
+    <t>位置预留一定注意</t>
+  </si>
+  <si>
+    <t>硬装5</t>
+  </si>
+  <si>
+    <t>抽油烟机</t>
+  </si>
+  <si>
+    <t>中山灯具</t>
+  </si>
+  <si>
+    <t>硬装人工费</t>
+  </si>
+  <si>
+    <t>水电师傅</t>
+  </si>
+  <si>
+    <t>水泥</t>
+  </si>
+  <si>
+    <t>泥工</t>
+  </si>
+  <si>
+    <t>水管</t>
+  </si>
+  <si>
+    <t>电线</t>
+  </si>
+  <si>
+    <t>浴室柜</t>
+  </si>
+  <si>
+    <t>吊顶石膏板</t>
+  </si>
+  <si>
+    <t>网线</t>
+  </si>
+  <si>
+    <t>客厅瓷砖</t>
+  </si>
+  <si>
+    <t>卧室瓷砖</t>
+  </si>
+  <si>
+    <t>美缝剂</t>
+  </si>
+  <si>
+    <t>德高</t>
+  </si>
+  <si>
+    <t>瓷砖</t>
+  </si>
+  <si>
+    <t>瓷砖胶上墙</t>
+  </si>
+  <si>
+    <t>去白墙</t>
+  </si>
+  <si>
+    <t>pvc管</t>
+  </si>
+  <si>
+    <t>防水涂料</t>
+  </si>
+  <si>
+    <t>泡沫砖</t>
+  </si>
+  <si>
+    <t>灰瓷砖</t>
+  </si>
+  <si>
+    <t>卫生间1</t>
+  </si>
+  <si>
+    <t>面积 12个够么???</t>
+  </si>
+  <si>
+    <t>净水器</t>
+  </si>
+  <si>
+    <t>软装5</t>
+  </si>
+  <si>
+    <t>洗衣机1</t>
+  </si>
+  <si>
+    <t>后面买</t>
+  </si>
+  <si>
+    <t>洗衣机2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>3亿</t>
   </si>
 </sst>
 </file>
@@ -802,14 +947,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,6 +1099,28 @@
     <tableColumn id="9" name="列2" dataDxfId="8"/>
     <tableColumn id="10" name="列3" dataDxfId="9"/>
     <tableColumn id="11" name="列4" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:M70" totalsRowShown="0">
+  <autoFilter ref="A1:M70"/>
+  <tableColumns count="13">
+    <tableColumn id="14" name="列1"/>
+    <tableColumn id="2" name="物品"/>
+    <tableColumn id="3" name="个数"/>
+    <tableColumn id="4" name="用途"/>
+    <tableColumn id="5" name="类别"/>
+    <tableColumn id="6" name="单价"/>
+    <tableColumn id="12" name="单价2"/>
+    <tableColumn id="7" name="总额"/>
+    <tableColumn id="13" name="总价2"/>
+    <tableColumn id="8" name="疑问"/>
+    <tableColumn id="9" name="建议品牌"/>
+    <tableColumn id="10" name="列3"/>
+    <tableColumn id="11" name="列4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,12 +1415,12 @@
   <sheetPr/>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="11" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30:L31"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1258,962 +1434,962 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
         <v>750</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <f>C2*F2</f>
         <v>9000</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>150000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f>C3*F3</f>
         <v>150000</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
         <v>3000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f>C4*F4</f>
         <v>9000</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
         <v>3000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" ref="G5:G27" si="0">C5*F5</f>
         <v>9000</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
         <v>1000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
         <v>4300</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>30</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>30</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
         <v>3000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
         <v>1500</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
         <v>400</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>12</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
         <v>20</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
         <v>1000</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
         <v>777</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>777</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
         <v>1000</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1">
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2">
         <v>1900</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>7600</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
         <v>1200</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2">
         <v>1900</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2">
         <v>3000</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>4000</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <f t="shared" ref="G21:G30" si="1">C21*F21</f>
         <v>4000</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2">
         <v>1000</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2">
         <v>400</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2">
         <v>500</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2">
         <v>300</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2">
         <v>3000</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2">
         <v>10000</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>10</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2">
         <v>165</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <f t="shared" si="1"/>
         <v>1650</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>20</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2">
         <v>165</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>30</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2">
         <v>800</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2">
         <v>3000</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>3000</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2">
         <v>3000</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>3000</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2">
         <v>1000</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <v>1000</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2">
         <v>9999</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>9999</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
         <f>C38*F38</f>
         <v>0</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="2">
         <f>SUM(G2:G38)</f>
         <v>285166</v>
       </c>
@@ -2226,4 +2402,2664 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>80000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>80000</v>
+      </c>
+      <c r="H2" s="2">
+        <f>C2*F2</f>
+        <v>80000</v>
+      </c>
+      <c r="I2" s="2">
+        <f>C2*G2</f>
+        <v>80000</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2">
+        <f>C3*F3</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I24" si="0">C3*G3</f>
+        <v>100</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <f>C4*F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>70</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H16" si="1">C5*F5</f>
+        <v>280</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>600</v>
+      </c>
+      <c r="G8" s="2">
+        <v>600</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2">
+        <v>90</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2">
+        <v>500</v>
+      </c>
+      <c r="G14" s="2">
+        <v>500</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>300</v>
+      </c>
+      <c r="G16" s="2">
+        <v>300</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="2">
+        <f>C17*F17</f>
+        <v>10000</v>
+      </c>
+      <c r="I17" s="2">
+        <f>C17*G17</f>
+        <v>10000</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" ref="H18:H26" si="2">C18*F18</f>
+        <v>1000</v>
+      </c>
+      <c r="I18" s="2">
+        <f>C18*G18</f>
+        <v>1000</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>6000</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="I19" s="2">
+        <f>C19*G19</f>
+        <v>6000</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2">
+        <v>600</v>
+      </c>
+      <c r="G20" s="2">
+        <v>600</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="I20" s="2">
+        <f>C20*G20</f>
+        <v>1200</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2800</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2800</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="I21" s="2">
+        <f>C21*G21</f>
+        <v>2800</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>20</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I22" s="2">
+        <f>C22*G22</f>
+        <v>20</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="2">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <v>100</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I23" s="2">
+        <f>C23*G23</f>
+        <v>100</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f>C24*G24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f>C25*G25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f>C26*G26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2">
+        <f>C27*F27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <f>C27*G27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G28" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H28" s="2">
+        <f>C28*F28</f>
+        <v>10000</v>
+      </c>
+      <c r="I28" s="2">
+        <f>C28*G28</f>
+        <v>10000</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="2">
+        <f>C29*F29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <f>C29*G29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="2">
+        <f>C30*F30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <f>C30*G30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="2">
+        <f>C31*F31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <f>C31*G31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1094</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1094</v>
+      </c>
+      <c r="H32" s="2">
+        <f>C32*F32</f>
+        <v>1094</v>
+      </c>
+      <c r="I32" s="2">
+        <f>C32*G32</f>
+        <v>1094</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="4">
+        <v>750</v>
+      </c>
+      <c r="G33" s="4">
+        <v>750</v>
+      </c>
+      <c r="H33" s="2">
+        <f>C33*F33</f>
+        <v>750</v>
+      </c>
+      <c r="I33" s="2">
+        <f>C33*G33</f>
+        <v>750</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="4">
+        <v>300</v>
+      </c>
+      <c r="G34" s="4">
+        <v>300</v>
+      </c>
+      <c r="H34" s="2">
+        <f>C34*F34</f>
+        <v>300</v>
+      </c>
+      <c r="I34" s="2">
+        <f>C34*G34</f>
+        <v>300</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="2">
+        <f t="shared" ref="H35:H70" si="3">C35*F35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <f>C35*G35</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1900</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1900</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="3"/>
+        <v>7600</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" ref="I35:I42" si="4">C36*G36</f>
+        <v>7600</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G37" s="2">
+        <v>9999</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="3"/>
+        <v>9999</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="4"/>
+        <v>9999</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="5"/>
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="5"/>
+      <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2">
+        <v>20</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3">
+        <v>12</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2">
+        <v>750</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G43" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" ref="I43:I70" si="5">C43*G43</f>
+        <v>9000</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="5"/>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="2">
+        <v>165</v>
+      </c>
+      <c r="G45" s="2">
+        <v>165</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="3"/>
+        <v>1650</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="5"/>
+        <v>1650</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="2">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="2">
+        <v>165</v>
+      </c>
+      <c r="G46" s="2">
+        <v>165</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="5"/>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="5"/>
+      <c r="B48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="2">
+        <v>400</v>
+      </c>
+      <c r="G48" s="2">
+        <v>400</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="5"/>
+        <v>2400</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="5"/>
+      <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="2">
+        <v>777</v>
+      </c>
+      <c r="G50" s="2">
+        <v>777</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="3"/>
+        <v>777</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="5"/>
+        <v>777</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4"/>
+      <c r="B51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="5"/>
+      <c r="B52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="5"/>
+      <c r="B53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G53" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="5"/>
+      <c r="B55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="2">
+        <v>400</v>
+      </c>
+      <c r="G55" s="2">
+        <v>400</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1800</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="5"/>
+      <c r="B57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="2">
+        <v>300</v>
+      </c>
+      <c r="G57" s="2">
+        <v>300</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G58" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L60" s="2">
+        <f>SUM(H2:H57)</f>
+        <v>259530</v>
+      </c>
+      <c r="M60" s="2">
+        <f>SUM(I2:I57)</f>
+        <v>268530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="5"/>
+      <c r="B62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="2">
+        <v>30</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="2">
+        <v>800</v>
+      </c>
+      <c r="G62" s="2">
+        <v>800</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="5"/>
+        <v>24000</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="5"/>
+      <c r="B63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1900</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1900</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="5"/>
+        <v>1900</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="5"/>
+      <c r="B65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="2">
+        <v>4300</v>
+      </c>
+      <c r="G66" s="2">
+        <v>4300</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="3"/>
+        <v>4300</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="5"/>
+        <v>4300</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="5"/>
+      <c r="B67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G67" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="5"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L70" s="5">
+        <f>SUM(H2:H70)</f>
+        <v>298730</v>
+      </c>
+      <c r="M70" s="2">
+        <f>SUM(I2:I70)</f>
+        <v>307730</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f ca="1">365-_xlfn.DAYS(NOW(),A2)</f>
+        <v>351</v>
+      </c>
+      <c r="F2">
+        <v>1500</v>
+      </c>
+      <c r="G2">
+        <f ca="1">D3</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f ca="1">365-_xlfn.DAYS(NOW(),A3)</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f ca="1" t="shared" ref="D3:D17" si="0">365-_xlfn.DAYS(NOW(),A4)</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f ca="1" t="shared" si="0"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>45070</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f ca="1" t="shared" si="0"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f ca="1" t="shared" si="0"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>45072</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f ca="1" t="shared" si="0"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f ca="1" t="shared" si="0"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>45074</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f ca="1" t="shared" si="0"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f ca="1" t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>45076</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f ca="1" t="shared" si="0"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>45077</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f ca="1" t="shared" si="0"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>45078</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f ca="1" t="shared" si="0"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>45079</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f ca="1" t="shared" si="0"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>45080</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f ca="1" t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>45081</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f ca="1" t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
+    <col min="6" max="6" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>44936</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f ca="1">365-_xlfn.DAYS(NOW(),A2)</f>
+        <v>221</v>
+      </c>
+      <c r="F2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>44937</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f ca="1" t="shared" ref="D3:D17" si="0">365-_xlfn.DAYS(NOW(),A3)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>44938</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f ca="1" t="shared" si="0"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>44939</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f ca="1" t="shared" si="0"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>44940</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f ca="1" t="shared" si="0"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>44941</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f ca="1" t="shared" si="0"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>44942</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f ca="1" t="shared" si="0"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>44943</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f ca="1" t="shared" si="0"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>44944</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f ca="1" t="shared" si="0"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>44945</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f ca="1" t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>44946</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f ca="1" t="shared" si="0"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>44947</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f ca="1" t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="E13">
+        <v>111</v>
+      </c>
+      <c r="F13">
+        <v>1500000000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>44948</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f ca="1" t="shared" si="0"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f ca="1" t="shared" si="0"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>44950</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f ca="1" t="shared" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>44951</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f ca="1" t="shared" si="0"/>
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6">
+        <v>352000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f>SUM(A2:A5)</f>
+        <v>497000</v>
+      </c>
+      <c r="C7">
+        <f>1230000*1.5%</f>
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8">
+        <f>1230000*1%</f>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10">
+        <f>SUM(C6:C9)</f>
+        <v>386750</v>
+      </c>
+      <c r="D10">
+        <f>A7-C10</f>
+        <v>110250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>